--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/ValueSet-jp-procedure-performer-role-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/ValueSet-jp-procedure-performer-role-codes-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Procedur" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP Core Practiti" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:40:28+00:00</t>
+    <t>2022-08-05T14:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This value set defines the set of codes that can be used to indicate a role of a procedure performer.</t>
+    <t>処置を実施した者の役割（ロール）を示すコード</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedurePerformerRoleCodes_CS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_PractitionerRoleCodes_CS</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/ValueSet-jp-procedure-performer-role-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/ValueSet-jp-procedure-performer-role-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T14:56:31+00:00</t>
+    <t>2022-08-06T09:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
